--- a/datasetsDerived/cropsFinal.xlsx
+++ b/datasetsDerived/cropsFinal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">NameFAO</t>
   </si>
@@ -32,48 +32,12 @@
     <t xml:space="preserve">Broad and field beans</t>
   </si>
   <si>
-    <t xml:space="preserve">BUCKWHEAT, MILLET, CANARY SEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other cereals n.e.c. (buckwheat, millet, canary seed, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITRUS FRUIT NES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrus fruits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRUIT NES FRESH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits, berries and nuts (excluding citrus fruits, grapes and strawberries)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRAIN, MIXED</t>
   </si>
   <si>
     <t xml:space="preserve">Spring cereal mixtures (mixed grain other than maslin)</t>
   </si>
   <si>
-    <t xml:space="preserve">GRAPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINSEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linseed (oilflax)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUPINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet lupins</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAIZE</t>
   </si>
   <si>
@@ -86,18 +50,6 @@
     <t xml:space="preserve">Oats</t>
   </si>
   <si>
-    <t xml:space="preserve">OILSEEDS NES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other oilseed crops n.e.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLIVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olives</t>
-  </si>
-  <si>
     <t xml:space="preserve">PEAS, DRY</t>
   </si>
   <si>
@@ -128,22 +80,10 @@
     <t xml:space="preserve">Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">ROOTS, TUBERS NES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other root crops n.e.c.</t>
-  </si>
-  <si>
     <t xml:space="preserve">RYE</t>
   </si>
   <si>
     <t xml:space="preserve">Rye and winter cereal mixtures (maslin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORGHUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorghum</t>
   </si>
   <si>
     <t xml:space="preserve">SOYBEANS</t>
@@ -512,7 +452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -660,90 +600,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
